--- a/data/UserData.xlsx
+++ b/data/UserData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilst\Documents\EPFL\BA_4\ppchem\Project\Project_ppchem\src\hydroponics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilst\Documents\EPFL\BA_4\ppchem\Project\Project_ppchem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4968535-75DD-4AC4-BB7D-21685DEDD589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6525D052-FF05-4D0D-9031-AAE44AC1B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71895" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{0C9764DA-48EA-406B-ADE4-285EB2DAE83A}"/>
+    <workbookView xWindow="2605" yWindow="1745" windowWidth="14400" windowHeight="7290" activeTab="2" xr2:uid="{0C9764DA-48EA-406B-ADE4-285EB2DAE83A}"/>
   </bookViews>
   <sheets>
     <sheet name="My solution" sheetId="4" r:id="rId1"/>
@@ -234,12 +234,6 @@
     <t>Source: https://www.agroscope.admin.ch/agroscope/fr/home/themes/production-vegetale/grandes-cultures/Pflanzenernaehrung/grud.html</t>
   </si>
   <si>
-    <t>c[g/L] Eggplant</t>
-  </si>
-  <si>
-    <t>c [mol/L]  Eggplant</t>
-  </si>
-  <si>
     <t>c [mol/L] Cucumber</t>
   </si>
   <si>
@@ -310,6 +304,12 @@
   </si>
   <si>
     <t>Example_solution</t>
+  </si>
+  <si>
+    <t>c [g/L] Eggplant</t>
+  </si>
+  <si>
+    <t>c [mol/L] Eggplant</t>
   </si>
 </sst>
 </file>
@@ -995,7 +995,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1006,18 +1006,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="27" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473C355-34F7-47B7-A944-9A4393DAF199}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="B1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1165,22 +1165,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="J1" s="26"/>
       <c r="L1" t="s">
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E9602F-A1A9-4D27-9EC8-7B08AC197720}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1691,23 +1691,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.75">
       <c r="A2" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="31">
         <v>0.1</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="31">
         <v>0.2</v>
@@ -1743,22 +1743,22 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A1" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>72</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.75">
@@ -1826,7 +1826,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>31.36</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>29.61</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>25.35</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>8.49</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0.15</v>
@@ -1930,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="6" t="s">

--- a/data/UserData.xlsx
+++ b/data/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilst\Documents\EPFL\BA_4\ppchem\Project\Project_ppchem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6525D052-FF05-4D0D-9031-AAE44AC1B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BEE07E-7FF4-4965-9A94-D37BF1063E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2605" yWindow="1745" windowWidth="14400" windowHeight="7290" activeTab="2" xr2:uid="{0C9764DA-48EA-406B-ADE4-285EB2DAE83A}"/>
+    <workbookView xWindow="2605" yWindow="1745" windowWidth="14400" windowHeight="7290" xr2:uid="{0C9764DA-48EA-406B-ADE4-285EB2DAE83A}"/>
   </bookViews>
   <sheets>
     <sheet name="My solution" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>Salt Name</t>
   </si>
@@ -195,12 +195,6 @@
     <t>H2PO4(-)</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Silicone</t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
@@ -310,6 +304,15 @@
   </si>
   <si>
     <t>c [mol/L] Eggplant</t>
+  </si>
+  <si>
+    <t>Fe(2+)</t>
+  </si>
+  <si>
+    <t>Mn(2+)</t>
+  </si>
+  <si>
+    <t>Zn(2+)</t>
   </si>
 </sst>
 </file>
@@ -992,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC4EC92-7D01-47DF-ACA6-90C1CE1B686F}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1006,18 +1009,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="27" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
@@ -1078,34 +1081,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B10" s="31">
-        <v>0</v>
+        <v>8.3767499999999986E-4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B11" s="31">
-        <v>8.3767499999999986E-4</v>
+        <v>5.4938000000000003E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="B12" s="31">
-        <v>5.4938000000000003E-4</v>
+        <v>3.2689999999999992E-4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B13" s="31">
-        <v>3.2689999999999992E-4</v>
+        <v>2.7054999999999994E-4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.75">
@@ -1113,22 +1116,14 @@
         <v>58</v>
       </c>
       <c r="B14" s="31">
-        <v>2.7054999999999994E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
+        <v>4.76595E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A15" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="31">
-        <v>4.76595E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="31">
         <v>4.7979999999999998E-5</v>
       </c>
     </row>
@@ -1139,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473C355-34F7-47B7-A944-9A4393DAF199}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A8" zoomScale="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1165,26 +1160,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="J1" s="26"/>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.75">
@@ -1235,22 +1230,22 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="E3" s="16">
-        <f t="shared" ref="E3:E15" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E14" si="0">C3*D3</f>
         <v>0.254137</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F14" si="1">D3</f>
+        <f t="shared" ref="F3:F13" si="1">D3</f>
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G14" si="2">C3*F3</f>
+        <f t="shared" ref="G3:G13" si="2">C3*F3</f>
         <v>0.254137</v>
       </c>
       <c r="H3" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I14" si="3">H3*C3</f>
+        <f t="shared" ref="I3:I13" si="3">H3*C3</f>
         <v>0.254137</v>
       </c>
       <c r="J3" s="9"/>
@@ -1423,34 +1418,37 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C9">
-        <v>28.085999999999999</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="D9" s="8">
-        <v>0</v>
+        <f>15*10^-6</f>
+        <v>1.4999999999999999E-5</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3767499999999986E-4</v>
       </c>
       <c r="F9" s="8">
-        <v>7.5000000000000002E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-5</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="2"/>
-        <v>2.10645E-2</v>
+        <v>8.3767499999999986E-4</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <f>15*10^-6</f>
+        <v>1.4999999999999999E-5</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3767499999999986E-4</v>
       </c>
       <c r="J9" s="9"/>
     </row>
@@ -1459,106 +1457,106 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C10">
-        <v>55.844999999999999</v>
+        <v>54.938000000000002</v>
       </c>
       <c r="D10" s="8">
-        <f>15*10^-6</f>
-        <v>1.4999999999999999E-5</v>
+        <f>10*10^-6</f>
+        <v>9.9999999999999991E-6</v>
       </c>
       <c r="E10" s="16">
         <f t="shared" si="0"/>
-        <v>8.3767499999999986E-4</v>
+        <v>5.4938000000000003E-4</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>1.4999999999999999E-5</v>
+        <v>9.9999999999999991E-6</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
-        <v>8.3767499999999986E-4</v>
+        <v>5.4938000000000003E-4</v>
       </c>
       <c r="H10" s="8">
-        <f>15*10^-6</f>
-        <v>1.4999999999999999E-5</v>
+        <f>10*10^-6</f>
+        <v>9.9999999999999991E-6</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="3"/>
-        <v>8.3767499999999986E-4</v>
+        <v>5.4938000000000003E-4</v>
       </c>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C11">
-        <v>54.938000000000002</v>
+        <v>65.38</v>
       </c>
       <c r="D11" s="8">
-        <f>10*10^-6</f>
-        <v>9.9999999999999991E-6</v>
+        <f>5*10^-6</f>
+        <v>4.9999999999999996E-6</v>
       </c>
       <c r="E11" s="16">
         <f t="shared" si="0"/>
-        <v>5.4938000000000003E-4</v>
+        <v>3.2689999999999992E-4</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="1"/>
-        <v>9.9999999999999991E-6</v>
+        <v>4.9999999999999996E-6</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
-        <v>5.4938000000000003E-4</v>
+        <v>3.2689999999999992E-4</v>
       </c>
       <c r="H11" s="8">
-        <f>10*10^-6</f>
-        <v>9.9999999999999991E-6</v>
+        <f>4*10^-6</f>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="3"/>
-        <v>5.4938000000000003E-4</v>
+        <v>2.6151999999999995E-4</v>
       </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
       <c r="C12">
-        <v>65.38</v>
+        <v>10.821999999999999</v>
       </c>
       <c r="D12" s="8">
-        <f>5*10^-6</f>
-        <v>4.9999999999999996E-6</v>
+        <f>25*10^-6</f>
+        <v>2.4999999999999998E-5</v>
       </c>
       <c r="E12" s="16">
         <f t="shared" si="0"/>
-        <v>3.2689999999999992E-4</v>
+        <v>2.7054999999999994E-4</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999996E-6</v>
+        <v>2.4999999999999998E-5</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="2"/>
-        <v>3.2689999999999992E-4</v>
+        <v>2.7054999999999994E-4</v>
       </c>
       <c r="H12" s="8">
-        <f>4*10^-6</f>
-        <v>3.9999999999999998E-6</v>
+        <f>30*10^-6</f>
+        <v>2.9999999999999997E-5</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>2.6151999999999995E-4</v>
+        <v>3.2465999999999994E-4</v>
       </c>
       <c r="J12" s="9"/>
     </row>
@@ -1570,105 +1568,69 @@
         <v>58</v>
       </c>
       <c r="C13">
-        <v>10.821999999999999</v>
+        <v>63.545999999999999</v>
       </c>
       <c r="D13" s="8">
-        <f>25*10^-6</f>
-        <v>2.4999999999999998E-5</v>
+        <f>0.75*10^-6</f>
+        <v>7.5000000000000002E-7</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="0"/>
-        <v>2.7054999999999994E-4</v>
+        <v>4.76595E-5</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="1"/>
-        <v>2.4999999999999998E-5</v>
+        <v>7.5000000000000002E-7</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
-        <v>2.7054999999999994E-4</v>
+        <v>4.76595E-5</v>
       </c>
       <c r="H13" s="8">
-        <f>30*10^-6</f>
-        <v>2.9999999999999997E-5</v>
+        <f>0.5*10^-6</f>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="3"/>
-        <v>3.2465999999999994E-4</v>
+        <v>3.1772999999999995E-5</v>
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C14">
-        <v>63.545999999999999</v>
-      </c>
-      <c r="D14" s="8">
-        <f>0.75*10^-6</f>
-        <v>7.5000000000000002E-7</v>
-      </c>
-      <c r="E14" s="16">
-        <f t="shared" si="0"/>
-        <v>4.76595E-5</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="1"/>
-        <v>7.5000000000000002E-7</v>
-      </c>
-      <c r="G14" s="9">
-        <f t="shared" si="2"/>
-        <v>4.76595E-5</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="C14" s="11">
+        <v>95.96</v>
+      </c>
+      <c r="D14" s="10">
         <f>0.5*10^-6</f>
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I14" s="9">
-        <f t="shared" si="3"/>
-        <v>3.1772999999999995E-5</v>
-      </c>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="11">
-        <v>95.96</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>4.7979999999999998E-5</v>
+      </c>
+      <c r="F14" s="10">
         <f>0.5*10^-6</f>
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="E15" s="17">
-        <f t="shared" si="0"/>
+      <c r="G14" s="12">
+        <f>F14*C14</f>
         <v>4.7979999999999998E-5</v>
       </c>
-      <c r="F15" s="10">
+      <c r="H14" s="10">
         <f>0.5*10^-6</f>
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="G15" s="12">
-        <f>F15*C15</f>
+      <c r="I14" s="12">
+        <f>H14*C14</f>
         <v>4.7979999999999998E-5</v>
       </c>
-      <c r="H15" s="10">
-        <f>0.5*10^-6</f>
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="I15" s="12">
-        <f>H15*C15</f>
-        <v>4.7979999999999998E-5</v>
-      </c>
-      <c r="J15" s="12"/>
+      <c r="J14" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1679,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E9602F-A1A9-4D27-9EC8-7B08AC197720}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1691,23 +1653,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.75">
       <c r="A2" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="31">
         <v>0.1</v>
@@ -1715,7 +1677,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="31">
         <v>0.2</v>
@@ -1743,22 +1705,22 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A1" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>70</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1813,7 +1775,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.75">
@@ -1826,7 +1788,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>31.36</v>
@@ -1834,7 +1796,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>29.61</v>
@@ -1842,7 +1804,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>25.35</v>
@@ -1850,7 +1812,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>8.49</v>
@@ -1858,7 +1820,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>0.86</v>
@@ -1882,7 +1844,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>0.15</v>
@@ -1930,7 +1892,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="6" t="s">
